--- a/Tables/Sources/sdk/ad_native_view.xlsx
+++ b/Tables/Sources/sdk/ad_native_view.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="18580" windowHeight="11860"/>
   </bookViews>
   <sheets>
     <sheet name="Max" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -66,7 +66,7 @@
     <t>MixView0</t>
   </si>
   <si>
-    <t>taurusx_native_layout</t>
+    <t>taurusx_native_layout.xml</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>root|action|choice|store</t>
+  </si>
+  <si>
+    <t>MixView1</t>
+  </si>
+  <si>
+    <t>MixView3</t>
+  </si>
+  <si>
+    <t>taurusx_native_layout1.xml</t>
+  </si>
+  <si>
+    <t>MixFull0</t>
+  </si>
+  <si>
+    <t>taurusx_ads_activity_mixfullad.xml</t>
+  </si>
+  <si>
+    <t>FullscreenMixView1</t>
   </si>
   <si>
     <t>广告类型</t>
@@ -374,13 +392,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +434,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -430,9 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,59 +465,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -515,7 +485,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -529,18 +507,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,9 +563,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,91 +599,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +623,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,73 +773,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,30 +992,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1009,8 +1009,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,6 +1031,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,11 +1067,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1055,10 +1079,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1067,137 +1091,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1316,6 +1340,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1691,17 +1718,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IN6"/>
+  <dimension ref="A1:IN9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="43.3333333333333" style="40" customWidth="1"/>
+    <col min="1" max="1" width="43.3363636363636" style="40" customWidth="1"/>
     <col min="2" max="3" width="25" style="40"/>
-    <col min="4" max="4" width="19.3333333333333" style="40" customWidth="1"/>
+    <col min="4" max="4" width="19.3363636363636" style="40" customWidth="1"/>
     <col min="5" max="16384" width="25" style="40"/>
   </cols>
   <sheetData>
@@ -1789,8 +1816,8 @@
       <c r="E5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -2033,8 +2060,320 @@
       <c r="IM5" s="43"/>
       <c r="IN5" s="43"/>
     </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="39"/>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" s="39" customFormat="1" ht="15" customHeight="1" spans="1:248">
+      <c r="A7" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="43"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="43"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="43"/>
+      <c r="AJ7" s="43"/>
+      <c r="AK7" s="43"/>
+      <c r="AL7" s="43"/>
+      <c r="AM7" s="43"/>
+      <c r="AN7" s="43"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
+      <c r="AY7" s="43"/>
+      <c r="AZ7" s="43"/>
+      <c r="BA7" s="43"/>
+      <c r="BB7" s="43"/>
+      <c r="BC7" s="43"/>
+      <c r="BD7" s="43"/>
+      <c r="BE7" s="43"/>
+      <c r="BF7" s="43"/>
+      <c r="BG7" s="43"/>
+      <c r="BH7" s="43"/>
+      <c r="BI7" s="43"/>
+      <c r="BJ7" s="43"/>
+      <c r="BK7" s="43"/>
+      <c r="BL7" s="43"/>
+      <c r="BM7" s="43"/>
+      <c r="BN7" s="43"/>
+      <c r="BO7" s="43"/>
+      <c r="BP7" s="43"/>
+      <c r="BQ7" s="43"/>
+      <c r="BR7" s="43"/>
+      <c r="BS7" s="43"/>
+      <c r="BT7" s="43"/>
+      <c r="BU7" s="43"/>
+      <c r="BV7" s="43"/>
+      <c r="BW7" s="43"/>
+      <c r="BX7" s="43"/>
+      <c r="BY7" s="43"/>
+      <c r="BZ7" s="43"/>
+      <c r="CA7" s="43"/>
+      <c r="CB7" s="43"/>
+      <c r="CC7" s="43"/>
+      <c r="CD7" s="43"/>
+      <c r="CE7" s="43"/>
+      <c r="CF7" s="43"/>
+      <c r="CG7" s="43"/>
+      <c r="CH7" s="43"/>
+      <c r="CI7" s="43"/>
+      <c r="CJ7" s="43"/>
+      <c r="CK7" s="43"/>
+      <c r="CL7" s="43"/>
+      <c r="CM7" s="43"/>
+      <c r="CN7" s="43"/>
+      <c r="CO7" s="43"/>
+      <c r="CP7" s="43"/>
+      <c r="CQ7" s="43"/>
+      <c r="CR7" s="43"/>
+      <c r="CS7" s="43"/>
+      <c r="CT7" s="43"/>
+      <c r="CU7" s="43"/>
+      <c r="CV7" s="43"/>
+      <c r="CW7" s="43"/>
+      <c r="CX7" s="43"/>
+      <c r="CY7" s="43"/>
+      <c r="CZ7" s="43"/>
+      <c r="DA7" s="43"/>
+      <c r="DB7" s="43"/>
+      <c r="DC7" s="43"/>
+      <c r="DD7" s="43"/>
+      <c r="DE7" s="43"/>
+      <c r="DF7" s="43"/>
+      <c r="DG7" s="43"/>
+      <c r="DH7" s="43"/>
+      <c r="DI7" s="43"/>
+      <c r="DJ7" s="43"/>
+      <c r="DK7" s="43"/>
+      <c r="DL7" s="43"/>
+      <c r="DM7" s="43"/>
+      <c r="DN7" s="43"/>
+      <c r="DO7" s="43"/>
+      <c r="DP7" s="43"/>
+      <c r="DQ7" s="43"/>
+      <c r="DR7" s="43"/>
+      <c r="DS7" s="43"/>
+      <c r="DT7" s="43"/>
+      <c r="DU7" s="43"/>
+      <c r="DV7" s="43"/>
+      <c r="DW7" s="43"/>
+      <c r="DX7" s="43"/>
+      <c r="DY7" s="43"/>
+      <c r="DZ7" s="43"/>
+      <c r="EA7" s="43"/>
+      <c r="EB7" s="43"/>
+      <c r="EC7" s="43"/>
+      <c r="ED7" s="43"/>
+      <c r="EE7" s="43"/>
+      <c r="EF7" s="43"/>
+      <c r="EG7" s="43"/>
+      <c r="EH7" s="43"/>
+      <c r="EI7" s="43"/>
+      <c r="EJ7" s="43"/>
+      <c r="EK7" s="43"/>
+      <c r="EL7" s="43"/>
+      <c r="EM7" s="43"/>
+      <c r="EN7" s="43"/>
+      <c r="EO7" s="43"/>
+      <c r="EP7" s="43"/>
+      <c r="EQ7" s="43"/>
+      <c r="ER7" s="43"/>
+      <c r="ES7" s="43"/>
+      <c r="ET7" s="43"/>
+      <c r="EU7" s="43"/>
+      <c r="EV7" s="43"/>
+      <c r="EW7" s="43"/>
+      <c r="EX7" s="43"/>
+      <c r="EY7" s="43"/>
+      <c r="EZ7" s="43"/>
+      <c r="FA7" s="43"/>
+      <c r="FB7" s="43"/>
+      <c r="FC7" s="43"/>
+      <c r="FD7" s="43"/>
+      <c r="FE7" s="43"/>
+      <c r="FF7" s="43"/>
+      <c r="FG7" s="43"/>
+      <c r="FH7" s="43"/>
+      <c r="FI7" s="43"/>
+      <c r="FJ7" s="43"/>
+      <c r="FK7" s="43"/>
+      <c r="FL7" s="43"/>
+      <c r="FM7" s="43"/>
+      <c r="FN7" s="43"/>
+      <c r="FO7" s="43"/>
+      <c r="FP7" s="43"/>
+      <c r="FQ7" s="43"/>
+      <c r="FR7" s="43"/>
+      <c r="FS7" s="43"/>
+      <c r="FT7" s="43"/>
+      <c r="FU7" s="43"/>
+      <c r="FV7" s="43"/>
+      <c r="FW7" s="43"/>
+      <c r="FX7" s="43"/>
+      <c r="FY7" s="43"/>
+      <c r="FZ7" s="43"/>
+      <c r="GA7" s="43"/>
+      <c r="GB7" s="43"/>
+      <c r="GC7" s="43"/>
+      <c r="GD7" s="43"/>
+      <c r="GE7" s="43"/>
+      <c r="GF7" s="43"/>
+      <c r="GG7" s="43"/>
+      <c r="GH7" s="43"/>
+      <c r="GI7" s="43"/>
+      <c r="GJ7" s="43"/>
+      <c r="GK7" s="43"/>
+      <c r="GL7" s="43"/>
+      <c r="GM7" s="43"/>
+      <c r="GN7" s="43"/>
+      <c r="GO7" s="43"/>
+      <c r="GP7" s="43"/>
+      <c r="GQ7" s="43"/>
+      <c r="GR7" s="43"/>
+      <c r="GS7" s="43"/>
+      <c r="GT7" s="43"/>
+      <c r="GU7" s="43"/>
+      <c r="GV7" s="43"/>
+      <c r="GW7" s="43"/>
+      <c r="GX7" s="43"/>
+      <c r="GY7" s="43"/>
+      <c r="GZ7" s="43"/>
+      <c r="HA7" s="43"/>
+      <c r="HB7" s="43"/>
+      <c r="HC7" s="43"/>
+      <c r="HD7" s="43"/>
+      <c r="HE7" s="43"/>
+      <c r="HF7" s="43"/>
+      <c r="HG7" s="43"/>
+      <c r="HH7" s="43"/>
+      <c r="HI7" s="43"/>
+      <c r="HJ7" s="43"/>
+      <c r="HK7" s="43"/>
+      <c r="HL7" s="43"/>
+      <c r="HM7" s="43"/>
+      <c r="HN7" s="43"/>
+      <c r="HO7" s="43"/>
+      <c r="HP7" s="43"/>
+      <c r="HQ7" s="43"/>
+      <c r="HR7" s="43"/>
+      <c r="HS7" s="43"/>
+      <c r="HT7" s="43"/>
+      <c r="HU7" s="43"/>
+      <c r="HV7" s="43"/>
+      <c r="HW7" s="43"/>
+      <c r="HX7" s="43"/>
+      <c r="HY7" s="43"/>
+      <c r="HZ7" s="43"/>
+      <c r="IA7" s="43"/>
+      <c r="IB7" s="43"/>
+      <c r="IC7" s="43"/>
+      <c r="ID7" s="43"/>
+      <c r="IE7" s="43"/>
+      <c r="IF7" s="43"/>
+      <c r="IG7" s="43"/>
+      <c r="IH7" s="43"/>
+      <c r="II7" s="43"/>
+      <c r="IJ7" s="43"/>
+      <c r="IK7" s="43"/>
+      <c r="IL7" s="43"/>
+      <c r="IM7" s="43"/>
+      <c r="IN7" s="43"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" s="40" customFormat="1" spans="1:6">
+      <c r="A9" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,18 +2395,18 @@
       <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="59.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="59.3363636363636" customWidth="1"/>
     <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="23.8333333333333" customWidth="1"/>
+    <col min="4" max="4" width="23.8363636363636" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="39.6666666666667" customWidth="1"/>
-    <col min="7" max="7" width="43.6666666666667" customWidth="1"/>
-    <col min="8" max="8" width="31.1666666666667" customWidth="1"/>
-    <col min="9" max="9" width="18.1666666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.1666666666667" customWidth="1"/>
-    <col min="11" max="11" width="23.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="39.6636363636364" customWidth="1"/>
+    <col min="7" max="7" width="43.6636363636364" customWidth="1"/>
+    <col min="8" max="8" width="31.1636363636364" customWidth="1"/>
+    <col min="9" max="9" width="18.1636363636364" customWidth="1"/>
+    <col min="10" max="10" width="23.1636363636364" customWidth="1"/>
+    <col min="11" max="11" width="23.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -2075,37 +2414,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2151,7 +2490,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -2160,7 +2499,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
@@ -2172,16 +2511,16 @@
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2189,51 +2528,51 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2246,16 +2585,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2268,16 +2607,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2290,16 +2629,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2312,16 +2651,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2334,16 +2673,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2356,22 +2695,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2382,22 +2721,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2408,16 +2747,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2430,16 +2769,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2452,16 +2791,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2474,16 +2813,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2510,151 +2849,151 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="40.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="19.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="39.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.3363636363636" customWidth="1"/>
+    <col min="2" max="2" width="40.8363636363636" customWidth="1"/>
+    <col min="3" max="3" width="19.6636363636364" customWidth="1"/>
+    <col min="4" max="4" width="39.8363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="34" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="36" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="15" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="15" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="34" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="15" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="37" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="37" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="37" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="37" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D14" s="38"/>
     </row>
@@ -2674,24 +3013,24 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.1636363636364" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.66666666666667" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.8333333333333" style="10" customWidth="1"/>
-    <col min="5" max="5" width="9.33333333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1666666666667" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.66363636363636" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.8363636363636" style="10" customWidth="1"/>
+    <col min="5" max="5" width="9.33636363636364" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.1636363636364" style="10" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.6636363636364" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.1636363636364" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -2706,83 +3045,83 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" ht="14.25" spans="1:11">
+    <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25"/>
-    <row r="5" ht="14.25" spans="1:10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="14.75"/>
+    <row r="5" ht="15" spans="1:10">
       <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -2791,16 +3130,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -2811,7 +3150,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -2825,7 +3164,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2839,7 +3178,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -2853,7 +3192,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -2867,7 +3206,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -2881,7 +3220,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -2941,7 +3280,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" ht="14.25" spans="1:10">
+    <row r="17" ht="14.75" spans="1:10">
       <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -2953,21 +3292,21 @@
       <c r="I17" s="18"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" ht="14.25"/>
-    <row r="19" ht="14.25" spans="1:10">
+    <row r="18" ht="14.75"/>
+    <row r="19" ht="15" spans="1:10">
       <c r="A19" s="19">
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -2976,16 +3315,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2996,7 +3335,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -3010,7 +3349,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3024,7 +3363,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -3038,7 +3377,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -3052,7 +3391,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -3066,7 +3405,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3126,7 +3465,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" ht="14.25" spans="1:10">
+    <row r="31" ht="14.75" spans="1:10">
       <c r="A31" s="25"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -3138,21 +3477,21 @@
       <c r="I31" s="18"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" ht="14.25"/>
-    <row r="33" ht="14.25" spans="1:10">
+    <row r="32" ht="14.75"/>
+    <row r="33" ht="15" spans="1:10">
       <c r="A33" s="19">
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -3161,16 +3500,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3181,7 +3520,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -3195,7 +3534,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -3209,7 +3548,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -3223,7 +3562,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -3237,7 +3576,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -3251,7 +3590,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -3311,7 +3650,7 @@
       <c r="I44" s="15"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" ht="14.25" spans="1:10">
+    <row r="45" ht="14.75" spans="1:10">
       <c r="A45" s="25"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -3323,21 +3662,21 @@
       <c r="I45" s="18"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" ht="14.25"/>
-    <row r="47" ht="14.25" spans="1:10">
+    <row r="46" ht="14.75"/>
+    <row r="47" ht="15" spans="1:10">
       <c r="A47" s="19">
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -3346,16 +3685,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -3366,7 +3705,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -3380,7 +3719,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -3394,7 +3733,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -3408,7 +3747,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -3422,7 +3761,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -3436,7 +3775,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3496,7 +3835,7 @@
       <c r="I58" s="15"/>
       <c r="J58" s="33"/>
     </row>
-    <row r="59" ht="14.25" spans="1:10">
+    <row r="59" ht="14.75" spans="1:10">
       <c r="A59" s="25"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -3537,24 +3876,24 @@
       <selection activeCell="B12" sqref="B12:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.1636363636364" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.33333333333333" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.6666666666667" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.33636363636364" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.6636363636364" style="10" customWidth="1"/>
     <col min="5" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1666666666667" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.1636363636364" style="10" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="12.6666666666667" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="12.6636363636364" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.1636363636364" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -3569,83 +3908,83 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
-    <row r="3" ht="14.25" spans="1:11">
+    <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25"/>
-    <row r="5" ht="14.25" spans="1:10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" ht="14.75"/>
+    <row r="5" ht="15" spans="1:10">
       <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3654,16 +3993,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -3674,7 +4013,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -3688,7 +4027,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3702,7 +4041,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -3716,7 +4055,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -3730,7 +4069,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -3744,7 +4083,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3804,7 +4143,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="33"/>
     </row>
-    <row r="17" ht="14.25" spans="1:10">
+    <row r="17" ht="14.75" spans="1:10">
       <c r="A17" s="25"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -3816,21 +4155,21 @@
       <c r="I17" s="18"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" ht="14.25"/>
-    <row r="19" ht="14.25" spans="1:10">
+    <row r="18" ht="14.75"/>
+    <row r="19" ht="15" spans="1:10">
       <c r="A19" s="19">
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3839,16 +4178,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -3859,7 +4198,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -3873,7 +4212,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3887,7 +4226,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -3901,7 +4240,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -3915,7 +4254,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -3929,7 +4268,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3989,7 +4328,7 @@
       <c r="I30" s="15"/>
       <c r="J30" s="33"/>
     </row>
-    <row r="31" ht="14.25" spans="1:10">
+    <row r="31" ht="14.75" spans="1:10">
       <c r="A31" s="25"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -4001,21 +4340,21 @@
       <c r="I31" s="18"/>
       <c r="J31" s="29"/>
     </row>
-    <row r="32" ht="14.25"/>
-    <row r="33" ht="14.25" spans="1:10">
+    <row r="32" ht="14.75"/>
+    <row r="33" ht="15" spans="1:10">
       <c r="A33" s="19">
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -4024,16 +4363,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -4044,7 +4383,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -4058,7 +4397,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -4072,7 +4411,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -4086,7 +4425,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -4100,7 +4439,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -4114,7 +4453,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4174,7 +4513,7 @@
       <c r="I44" s="15"/>
       <c r="J44" s="33"/>
     </row>
-    <row r="45" ht="14.25" spans="1:10">
+    <row r="45" ht="14.75" spans="1:10">
       <c r="A45" s="25"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -4186,21 +4525,21 @@
       <c r="I45" s="18"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" ht="14.25"/>
-    <row r="47" ht="14.25" spans="1:10">
+    <row r="46" ht="14.75"/>
+    <row r="47" ht="15" spans="1:10">
       <c r="A47" s="19">
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -4209,16 +4548,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -4229,7 +4568,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -4243,7 +4582,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4257,7 +4596,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -4271,7 +4610,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -4285,7 +4624,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -4299,7 +4638,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -4359,7 +4698,7 @@
       <c r="I58" s="15"/>
       <c r="J58" s="33"/>
     </row>
-    <row r="59" ht="14.25" spans="1:10">
+    <row r="59" ht="14.75" spans="1:10">
       <c r="A59" s="25"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -4399,412 +4738,412 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="37.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="37.6636363636364" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1666666666667" customWidth="1"/>
+    <col min="4" max="4" width="11.1636363636364" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="14.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="46.3363636363636" customWidth="1"/>
+    <col min="10" max="10" width="14.6636363636364" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H13" s="4">
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -4812,31 +5151,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>

--- a/Tables/Sources/sdk/ad_native_view.xlsx
+++ b/Tables/Sources/sdk/ad_native_view.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18580" windowHeight="11860"/>
+    <workbookView windowWidth="25850" windowHeight="8440"/>
   </bookViews>
   <sheets>
     <sheet name="Max" sheetId="7" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="125">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +39,12 @@
     <t>可点击区</t>
   </si>
   <si>
+    <t>高度类型</t>
+  </si>
+  <si>
+    <t>高度</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -61,6 +67,12 @@
   </si>
   <si>
     <t>InteractiveArea</t>
+  </si>
+  <si>
+    <t>HeightType</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
   <si>
     <t>MixView0</t>
@@ -392,10 +404,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -441,16 +453,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -468,6 +496,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -476,32 +511,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -524,6 +543,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -531,9 +566,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,14 +583,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -564,21 +590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,13 +611,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,31 +629,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,55 +647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +665,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,25 +683,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +707,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +737,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,21 +989,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1010,7 +1007,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,7 +1042,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1064,25 +1085,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1091,133 +1103,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1718,21 +1730,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IN9"/>
+  <dimension ref="A1:IN10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="43.3363636363636" style="40" customWidth="1"/>
-    <col min="2" max="3" width="25" style="40"/>
+    <col min="2" max="2" width="35.7727272727273" style="40" customWidth="1"/>
+    <col min="3" max="3" width="25" style="40"/>
     <col min="4" max="4" width="19.3363636363636" style="40" customWidth="1"/>
-    <col min="5" max="16384" width="25" style="40"/>
+    <col min="5" max="5" width="40.7727272727273" style="40" customWidth="1"/>
+    <col min="6" max="6" width="25" style="40"/>
+    <col min="7" max="7" width="19.3363636363636" style="40" customWidth="1"/>
+    <col min="8" max="16384" width="25" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -1748,75 +1764,98 @@
       <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>8</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" s="39" customFormat="1" ht="15" customHeight="1" spans="1:248">
       <c r="A5" s="40" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="39"/>
+        <v>21</v>
+      </c>
       <c r="G5" s="42"/>
       <c r="H5" s="43"/>
       <c r="I5" s="43"/>
@@ -2060,40 +2099,39 @@
       <c r="IM5" s="43"/>
       <c r="IN5" s="43"/>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="42" t="s">
-        <v>14</v>
-      </c>
       <c r="C6" s="39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D6" s="40">
         <v>0.9</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F6" s="39"/>
-      <c r="G6" s="40"/>
     </row>
     <row r="7" s="39" customFormat="1" ht="15" customHeight="1" spans="1:248">
       <c r="A7" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="D7" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7" s="42"/>
       <c r="H7" s="43"/>
@@ -2338,45 +2376,291 @@
       <c r="IM7" s="43"/>
       <c r="IN7" s="43"/>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" spans="1:6">
       <c r="A8" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="39"/>
-      <c r="G8" s="40"/>
     </row>
     <row r="9" s="40" customFormat="1" spans="1:6">
       <c r="A9" s="44" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F9" s="39"/>
     </row>
+    <row r="10" s="39" customFormat="1" ht="15" customHeight="1" spans="1:248">
+      <c r="A10" s="40"/>
+      <c r="B10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
+      <c r="AA10" s="43"/>
+      <c r="AB10" s="43"/>
+      <c r="AC10" s="43"/>
+      <c r="AD10" s="43"/>
+      <c r="AE10" s="43"/>
+      <c r="AF10" s="43"/>
+      <c r="AG10" s="43"/>
+      <c r="AH10" s="43"/>
+      <c r="AI10" s="43"/>
+      <c r="AJ10" s="43"/>
+      <c r="AK10" s="43"/>
+      <c r="AL10" s="43"/>
+      <c r="AM10" s="43"/>
+      <c r="AN10" s="43"/>
+      <c r="AO10" s="43"/>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43"/>
+      <c r="AT10" s="43"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="43"/>
+      <c r="AX10" s="43"/>
+      <c r="AY10" s="43"/>
+      <c r="AZ10" s="43"/>
+      <c r="BA10" s="43"/>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="43"/>
+      <c r="BD10" s="43"/>
+      <c r="BE10" s="43"/>
+      <c r="BF10" s="43"/>
+      <c r="BG10" s="43"/>
+      <c r="BH10" s="43"/>
+      <c r="BI10" s="43"/>
+      <c r="BJ10" s="43"/>
+      <c r="BK10" s="43"/>
+      <c r="BL10" s="43"/>
+      <c r="BM10" s="43"/>
+      <c r="BN10" s="43"/>
+      <c r="BO10" s="43"/>
+      <c r="BP10" s="43"/>
+      <c r="BQ10" s="43"/>
+      <c r="BR10" s="43"/>
+      <c r="BS10" s="43"/>
+      <c r="BT10" s="43"/>
+      <c r="BU10" s="43"/>
+      <c r="BV10" s="43"/>
+      <c r="BW10" s="43"/>
+      <c r="BX10" s="43"/>
+      <c r="BY10" s="43"/>
+      <c r="BZ10" s="43"/>
+      <c r="CA10" s="43"/>
+      <c r="CB10" s="43"/>
+      <c r="CC10" s="43"/>
+      <c r="CD10" s="43"/>
+      <c r="CE10" s="43"/>
+      <c r="CF10" s="43"/>
+      <c r="CG10" s="43"/>
+      <c r="CH10" s="43"/>
+      <c r="CI10" s="43"/>
+      <c r="CJ10" s="43"/>
+      <c r="CK10" s="43"/>
+      <c r="CL10" s="43"/>
+      <c r="CM10" s="43"/>
+      <c r="CN10" s="43"/>
+      <c r="CO10" s="43"/>
+      <c r="CP10" s="43"/>
+      <c r="CQ10" s="43"/>
+      <c r="CR10" s="43"/>
+      <c r="CS10" s="43"/>
+      <c r="CT10" s="43"/>
+      <c r="CU10" s="43"/>
+      <c r="CV10" s="43"/>
+      <c r="CW10" s="43"/>
+      <c r="CX10" s="43"/>
+      <c r="CY10" s="43"/>
+      <c r="CZ10" s="43"/>
+      <c r="DA10" s="43"/>
+      <c r="DB10" s="43"/>
+      <c r="DC10" s="43"/>
+      <c r="DD10" s="43"/>
+      <c r="DE10" s="43"/>
+      <c r="DF10" s="43"/>
+      <c r="DG10" s="43"/>
+      <c r="DH10" s="43"/>
+      <c r="DI10" s="43"/>
+      <c r="DJ10" s="43"/>
+      <c r="DK10" s="43"/>
+      <c r="DL10" s="43"/>
+      <c r="DM10" s="43"/>
+      <c r="DN10" s="43"/>
+      <c r="DO10" s="43"/>
+      <c r="DP10" s="43"/>
+      <c r="DQ10" s="43"/>
+      <c r="DR10" s="43"/>
+      <c r="DS10" s="43"/>
+      <c r="DT10" s="43"/>
+      <c r="DU10" s="43"/>
+      <c r="DV10" s="43"/>
+      <c r="DW10" s="43"/>
+      <c r="DX10" s="43"/>
+      <c r="DY10" s="43"/>
+      <c r="DZ10" s="43"/>
+      <c r="EA10" s="43"/>
+      <c r="EB10" s="43"/>
+      <c r="EC10" s="43"/>
+      <c r="ED10" s="43"/>
+      <c r="EE10" s="43"/>
+      <c r="EF10" s="43"/>
+      <c r="EG10" s="43"/>
+      <c r="EH10" s="43"/>
+      <c r="EI10" s="43"/>
+      <c r="EJ10" s="43"/>
+      <c r="EK10" s="43"/>
+      <c r="EL10" s="43"/>
+      <c r="EM10" s="43"/>
+      <c r="EN10" s="43"/>
+      <c r="EO10" s="43"/>
+      <c r="EP10" s="43"/>
+      <c r="EQ10" s="43"/>
+      <c r="ER10" s="43"/>
+      <c r="ES10" s="43"/>
+      <c r="ET10" s="43"/>
+      <c r="EU10" s="43"/>
+      <c r="EV10" s="43"/>
+      <c r="EW10" s="43"/>
+      <c r="EX10" s="43"/>
+      <c r="EY10" s="43"/>
+      <c r="EZ10" s="43"/>
+      <c r="FA10" s="43"/>
+      <c r="FB10" s="43"/>
+      <c r="FC10" s="43"/>
+      <c r="FD10" s="43"/>
+      <c r="FE10" s="43"/>
+      <c r="FF10" s="43"/>
+      <c r="FG10" s="43"/>
+      <c r="FH10" s="43"/>
+      <c r="FI10" s="43"/>
+      <c r="FJ10" s="43"/>
+      <c r="FK10" s="43"/>
+      <c r="FL10" s="43"/>
+      <c r="FM10" s="43"/>
+      <c r="FN10" s="43"/>
+      <c r="FO10" s="43"/>
+      <c r="FP10" s="43"/>
+      <c r="FQ10" s="43"/>
+      <c r="FR10" s="43"/>
+      <c r="FS10" s="43"/>
+      <c r="FT10" s="43"/>
+      <c r="FU10" s="43"/>
+      <c r="FV10" s="43"/>
+      <c r="FW10" s="43"/>
+      <c r="FX10" s="43"/>
+      <c r="FY10" s="43"/>
+      <c r="FZ10" s="43"/>
+      <c r="GA10" s="43"/>
+      <c r="GB10" s="43"/>
+      <c r="GC10" s="43"/>
+      <c r="GD10" s="43"/>
+      <c r="GE10" s="43"/>
+      <c r="GF10" s="43"/>
+      <c r="GG10" s="43"/>
+      <c r="GH10" s="43"/>
+      <c r="GI10" s="43"/>
+      <c r="GJ10" s="43"/>
+      <c r="GK10" s="43"/>
+      <c r="GL10" s="43"/>
+      <c r="GM10" s="43"/>
+      <c r="GN10" s="43"/>
+      <c r="GO10" s="43"/>
+      <c r="GP10" s="43"/>
+      <c r="GQ10" s="43"/>
+      <c r="GR10" s="43"/>
+      <c r="GS10" s="43"/>
+      <c r="GT10" s="43"/>
+      <c r="GU10" s="43"/>
+      <c r="GV10" s="43"/>
+      <c r="GW10" s="43"/>
+      <c r="GX10" s="43"/>
+      <c r="GY10" s="43"/>
+      <c r="GZ10" s="43"/>
+      <c r="HA10" s="43"/>
+      <c r="HB10" s="43"/>
+      <c r="HC10" s="43"/>
+      <c r="HD10" s="43"/>
+      <c r="HE10" s="43"/>
+      <c r="HF10" s="43"/>
+      <c r="HG10" s="43"/>
+      <c r="HH10" s="43"/>
+      <c r="HI10" s="43"/>
+      <c r="HJ10" s="43"/>
+      <c r="HK10" s="43"/>
+      <c r="HL10" s="43"/>
+      <c r="HM10" s="43"/>
+      <c r="HN10" s="43"/>
+      <c r="HO10" s="43"/>
+      <c r="HP10" s="43"/>
+      <c r="HQ10" s="43"/>
+      <c r="HR10" s="43"/>
+      <c r="HS10" s="43"/>
+      <c r="HT10" s="43"/>
+      <c r="HU10" s="43"/>
+      <c r="HV10" s="43"/>
+      <c r="HW10" s="43"/>
+      <c r="HX10" s="43"/>
+      <c r="HY10" s="43"/>
+      <c r="HZ10" s="43"/>
+      <c r="IA10" s="43"/>
+      <c r="IB10" s="43"/>
+      <c r="IC10" s="43"/>
+      <c r="ID10" s="43"/>
+      <c r="IE10" s="43"/>
+      <c r="IF10" s="43"/>
+      <c r="IG10" s="43"/>
+      <c r="IH10" s="43"/>
+      <c r="II10" s="43"/>
+      <c r="IJ10" s="43"/>
+      <c r="IK10" s="43"/>
+      <c r="IL10" s="43"/>
+      <c r="IM10" s="43"/>
+      <c r="IN10" s="43"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
@@ -2398,14 +2682,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="59.3363636363636" customWidth="1"/>
-    <col min="2" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="23.8363636363636" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="2" max="3" width="21.4454545454545" customWidth="1"/>
+    <col min="4" max="4" width="23.7727272727273" customWidth="1"/>
+    <col min="5" max="5" width="21.4454545454545" customWidth="1"/>
     <col min="6" max="6" width="39.6636363636364" customWidth="1"/>
     <col min="7" max="7" width="43.6636363636364" customWidth="1"/>
-    <col min="8" max="8" width="31.1636363636364" customWidth="1"/>
-    <col min="9" max="9" width="18.1636363636364" customWidth="1"/>
-    <col min="10" max="10" width="23.1636363636364" customWidth="1"/>
+    <col min="8" max="8" width="31.1090909090909" customWidth="1"/>
+    <col min="9" max="9" width="18.1090909090909" customWidth="1"/>
+    <col min="10" max="10" width="23.1090909090909" customWidth="1"/>
     <col min="11" max="11" width="23.6636363636364" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2414,165 +2698,165 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -2585,16 +2869,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -2607,16 +2891,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -2629,16 +2913,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -2651,16 +2935,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2673,16 +2957,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2695,22 +2979,22 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2721,22 +3005,22 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B12" s="4">
         <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2747,16 +3031,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2769,16 +3053,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2791,16 +3075,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B15" s="4">
         <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2813,16 +3097,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2852,148 +3136,148 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="19.3363636363636" customWidth="1"/>
-    <col min="2" max="2" width="40.8363636363636" customWidth="1"/>
+    <col min="2" max="2" width="40.7727272727273" customWidth="1"/>
     <col min="3" max="3" width="19.6636363636364" customWidth="1"/>
-    <col min="4" max="4" width="39.8363636363636" customWidth="1"/>
+    <col min="4" max="4" width="39.7727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="34"/>
       <c r="C1" s="34" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" s="35"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="36" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D4" s="37"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="36" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D5" s="27"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="36" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B7" s="38"/>
       <c r="C7" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="15" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="34" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="37" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="36"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="37" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D13" s="36"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B14" s="38"/>
       <c r="C14" s="34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D14" s="38"/>
     </row>
@@ -3015,22 +3299,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1636363636364" customWidth="1"/>
+    <col min="1" max="1" width="13.1090909090909" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.66363636363636" style="10" customWidth="1"/>
-    <col min="4" max="4" width="13.8363636363636" style="10" customWidth="1"/>
+    <col min="4" max="4" width="13.7727272727273" style="10" customWidth="1"/>
     <col min="5" max="5" width="9.33636363636364" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1636363636364" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.4454545454545" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.6636363636364" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.1636363636364" customWidth="1"/>
+    <col min="9" max="9" width="10.1090909090909" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -3045,66 +3329,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -3113,15 +3397,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3130,16 +3414,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -3150,7 +3434,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -3164,7 +3448,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -3178,7 +3462,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -3192,7 +3476,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -3206,7 +3490,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -3220,7 +3504,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -3298,15 +3582,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -3315,16 +3599,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -3335,7 +3619,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -3349,7 +3633,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3363,7 +3647,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -3377,7 +3661,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -3391,7 +3675,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -3405,7 +3689,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -3483,15 +3767,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -3500,16 +3784,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -3520,7 +3804,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -3534,7 +3818,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -3548,7 +3832,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -3562,7 +3846,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -3576,7 +3860,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -3590,7 +3874,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -3668,15 +3952,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -3685,16 +3969,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -3705,7 +3989,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -3719,7 +4003,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -3733,7 +4017,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -3747,7 +4031,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -3761,7 +4045,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -3775,7 +4059,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -3878,22 +4162,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.1636363636364" customWidth="1"/>
+    <col min="1" max="1" width="13.1090909090909" customWidth="1"/>
     <col min="2" max="2" width="17" style="10" customWidth="1"/>
     <col min="3" max="3" width="8.33636363636364" style="10" customWidth="1"/>
     <col min="4" max="4" width="13.6636363636364" style="10" customWidth="1"/>
     <col min="5" max="5" width="10" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.1636363636364" style="10" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.1090909090909" style="10" customWidth="1"/>
+    <col min="7" max="7" width="10.4454545454545" style="10" customWidth="1"/>
     <col min="8" max="8" width="12.6636363636364" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.1636363636364" customWidth="1"/>
+    <col min="9" max="9" width="10.1090909090909" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
@@ -3908,66 +4192,66 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
     </row>
     <row r="3" ht="14.75" spans="1:11">
       <c r="A3" s="16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" ht="14.75"/>
@@ -3976,15 +4260,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
@@ -3993,16 +4277,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
@@ -4013,7 +4297,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
@@ -4027,7 +4311,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -4041,7 +4325,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="15"/>
@@ -4055,7 +4339,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="15"/>
@@ -4069,7 +4353,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="15"/>
@@ -4083,7 +4367,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -4161,15 +4445,15 @@
         <v>2</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -4178,16 +4462,16 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -4198,7 +4482,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
@@ -4212,7 +4496,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4226,7 +4510,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="15"/>
@@ -4240,7 +4524,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="15"/>
@@ -4254,7 +4538,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="15"/>
@@ -4268,7 +4552,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
@@ -4346,15 +4630,15 @@
         <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
@@ -4363,16 +4647,16 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -4383,7 +4667,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
@@ -4397,7 +4681,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
@@ -4411,7 +4695,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="15"/>
@@ -4425,7 +4709,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="15"/>
@@ -4439,7 +4723,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="15"/>
@@ -4453,7 +4737,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -4531,15 +4815,15 @@
         <v>4</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="20" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G47" s="21"/>
       <c r="H47" s="21"/>
@@ -4548,16 +4832,16 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
@@ -4568,7 +4852,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="23"/>
@@ -4582,7 +4866,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="23"/>
@@ -4596,7 +4880,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="14" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="15"/>
@@ -4610,7 +4894,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="14" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="15"/>
@@ -4624,7 +4908,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="15"/>
@@ -4638,7 +4922,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="24" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -4741,10 +5025,10 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="37.6636363636364" customWidth="1"/>
-    <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="11.1636363636364" customWidth="1"/>
+    <col min="3" max="3" width="9.44545454545455" customWidth="1"/>
+    <col min="4" max="4" width="11.1090909090909" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44545454545455" style="1" customWidth="1"/>
     <col min="7" max="7" width="46.3363636363636" customWidth="1"/>
     <col min="10" max="10" width="14.6636363636364" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
@@ -4752,398 +5036,398 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5"/>
       <c r="G2" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H2" s="4">
         <v>1</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H3" s="4">
         <v>2</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5"/>
       <c r="G4" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H5" s="4">
         <v>2</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5"/>
       <c r="G6" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5"/>
       <c r="G7" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B9" s="4">
         <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H9" s="4">
         <v>2</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B11" s="4">
         <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12" s="4">
         <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5"/>
       <c r="G12" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="H12" s="4">
         <v>1</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5"/>
       <c r="G13" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H13" s="4">
         <v>2</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H14" s="4">
         <v>1</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K14" s="2">
         <v>0</v>
@@ -5151,31 +5435,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B15" s="4">
         <v>2</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H15" s="4">
         <v>2</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
